--- a/Experimentos/teste_geral/Dataset4/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset4/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E9DEF8-32DF-4FD3-8BAA-22443DF77A6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE181852-FE58-4275-B531-7F6D1A4AE58C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -84,11 +78,17 @@
   <si>
     <t>PUZZLE 4 - BEST PER EXPERIMENT</t>
   </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,22 +638,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Fitness:"/>
-    <tableColumn id="10" name="Tempo:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1004,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1033,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -1059,10 +1059,10 @@
         <v>2000</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0.8</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -1149,22 +1149,22 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0.8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>0.4</v>
       </c>
       <c r="I7">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J7">
-        <v>3060</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1175,36 +1175,36 @@
         <v>2000</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I8">
         <v>320</v>
       </c>
       <c r="J8">
-        <v>2603</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1216,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
         <v>320</v>
       </c>
       <c r="J9">
-        <v>5306</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
         <v>320</v>
       </c>
       <c r="J10">
-        <v>6181</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,25 +1262,25 @@
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
         <v>320</v>
       </c>
       <c r="J11">
-        <v>7534</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,10 +1291,10 @@
         <v>2000</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -1306,10 +1306,10 @@
         <v>0.4</v>
       </c>
       <c r="I12">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J12">
-        <v>5649</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1320,30 +1320,30 @@
         <v>2000</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J13">
-        <v>6334</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -1352,36 +1352,36 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>0.4</v>
       </c>
       <c r="I14">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J14">
-        <v>2960</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B15">
         <v>2000</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0.8</v>
@@ -1393,44 +1393,44 @@
         <v>0.4</v>
       </c>
       <c r="I15">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J15">
-        <v>2738</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B16">
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J16">
-        <v>2780</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>2000</v>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0.7</v>
@@ -1448,13 +1448,13 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I17">
         <v>324</v>
       </c>
       <c r="J17">
-        <v>5460</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,10 +1465,10 @@
         <v>2000</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0.8</v>
@@ -1480,10 +1480,10 @@
         <v>0.4</v>
       </c>
       <c r="I18">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J18">
-        <v>3230</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1494,10 +1494,10 @@
         <v>2000</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0.7</v>
@@ -1506,13 +1506,13 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J19">
-        <v>2797</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1526,10 +1526,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1538,24 +1538,24 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J20">
-        <v>5164</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0.8</v>
@@ -1570,7 +1570,7 @@
         <v>326</v>
       </c>
       <c r="J21">
-        <v>6434</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>2000</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0.7</v>
@@ -1596,10 +1596,10 @@
         <v>0.2</v>
       </c>
       <c r="I22">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J22">
-        <v>2982</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>2000</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1625,10 +1625,10 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J23">
-        <v>6110</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1654,24 +1654,24 @@
         <v>0.4</v>
       </c>
       <c r="I24">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J24">
-        <v>5936</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B25">
         <v>2000</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0.7</v>
@@ -1686,7 +1686,7 @@
         <v>328</v>
       </c>
       <c r="J25">
-        <v>7783</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1697,39 +1697,39 @@
         <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
         <v>328</v>
       </c>
       <c r="J26">
-        <v>5006</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B27">
         <v>2000</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0.7</v>
@@ -1741,24 +1741,24 @@
         <v>0.4</v>
       </c>
       <c r="I27">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J27">
-        <v>3063</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B28">
         <v>2000</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0.7</v>
@@ -1767,42 +1767,42 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J28">
-        <v>2725</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B29">
         <v>2000</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I29">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J29">
-        <v>2548</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,25 +1813,25 @@
         <v>2000</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I30">
         <v>330</v>
       </c>
       <c r="J30">
-        <v>2744</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1842,117 +1842,117 @@
         <v>2000</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J31">
-        <v>2632</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>2000</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0.8</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>0.2</v>
       </c>
       <c r="I32">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J32">
-        <v>5315</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>2000</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I33">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J33">
-        <v>6582</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>2000</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>0.7</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I34">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J34">
-        <v>5853</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B35">
         <v>2000</v>
@@ -1961,22 +1961,22 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>0.2</v>
       </c>
       <c r="I35">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J35">
-        <v>3087</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,39 +1987,39 @@
         <v>2000</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J36">
-        <v>2653</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B37">
         <v>2000</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>0.7</v>
@@ -2031,10 +2031,10 @@
         <v>0.4</v>
       </c>
       <c r="I37">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J37">
-        <v>3257</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>2000</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0.7</v>
@@ -2060,10 +2060,10 @@
         <v>0.2</v>
       </c>
       <c r="I38">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J38">
-        <v>5360</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,39 +2074,39 @@
         <v>2000</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I39">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J39">
-        <v>5001</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>2000</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>0.8</v>
@@ -2115,27 +2115,27 @@
         <v>10</v>
       </c>
       <c r="G40">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
         <v>334</v>
       </c>
       <c r="J40">
-        <v>5078</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <v>2000</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>0.7</v>
@@ -2150,21 +2150,21 @@
         <v>334</v>
       </c>
       <c r="J41">
-        <v>6596</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>2000</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>0.7</v>
@@ -2173,13 +2173,13 @@
         <v>10</v>
       </c>
       <c r="G42">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I42">
         <v>334</v>
       </c>
       <c r="J42">
-        <v>5011</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2190,13 +2190,13 @@
         <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2208,21 +2208,21 @@
         <v>334</v>
       </c>
       <c r="J43">
-        <v>5051</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B44">
         <v>2000</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>0.8</v>
@@ -2234,24 +2234,24 @@
         <v>0.2</v>
       </c>
       <c r="I44">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J44">
-        <v>2903</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B45">
         <v>2000</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>0.8</v>
@@ -2260,27 +2260,27 @@
         <v>10</v>
       </c>
       <c r="G45">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I45">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J45">
-        <v>2498</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B46">
         <v>2000</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -2289,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I46">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J46">
-        <v>2959</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2306,25 +2306,25 @@
         <v>2000</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0.7</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <v>0.2</v>
       </c>
       <c r="I47">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J47">
-        <v>5437</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2335,30 +2335,30 @@
         <v>2000</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0.8</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>0.2</v>
       </c>
       <c r="I48">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J48">
-        <v>5204</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>2000</v>
@@ -2373,16 +2373,16 @@
         <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <v>0.2</v>
       </c>
       <c r="I49">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J49">
-        <v>5436</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2393,54 +2393,54 @@
         <v>2000</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I50">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J50">
-        <v>3447</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B51">
         <v>2000</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J51">
-        <v>2617</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2451,30 +2451,30 @@
         <v>2000</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
       </c>
       <c r="G52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I52">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J52">
-        <v>2693</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>2000</v>
@@ -2489,45 +2489,45 @@
         <v>0.8</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>0.2</v>
       </c>
       <c r="I53">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J53">
-        <v>3015</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B54">
         <v>2000</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E54">
         <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54">
         <v>0.2</v>
       </c>
       <c r="I54">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J54">
-        <v>2629</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2538,54 +2538,54 @@
         <v>2000</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>0.8</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G55">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I55">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J55">
-        <v>5709</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>2000</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>0.8</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I56">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J56">
-        <v>3229</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2596,25 +2596,25 @@
         <v>2000</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>0.7</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I57">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J57">
-        <v>2440</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,25 +2625,25 @@
         <v>2000</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I58">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J58">
-        <v>3096</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2654,30 +2654,30 @@
         <v>2000</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>0.8</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I59">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J59">
-        <v>3174</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>2000</v>
@@ -2686,27 +2686,27 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>0.2</v>
       </c>
       <c r="I60">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J60">
-        <v>5454</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>2000</v>
@@ -2715,27 +2715,27 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J61">
-        <v>5351</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2000</v>
@@ -2744,22 +2744,22 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J62">
-        <v>5785</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2773,22 +2773,22 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>0.7</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>0.2</v>
       </c>
       <c r="I63">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J63">
-        <v>5592</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2802,51 +2802,51 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>0.8</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <v>0.2</v>
       </c>
       <c r="I64">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J64">
-        <v>5602</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>2000</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I65">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J65">
-        <v>6051</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,94 +2857,94 @@
         <v>2000</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>0.4</v>
       </c>
       <c r="I66">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J66">
-        <v>7297</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B67">
         <v>2000</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G67">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I67">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J67">
-        <v>3151</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>2000</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>0.2</v>
       </c>
       <c r="I68">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J68">
-        <v>5615</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>2000</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2953,21 +2953,21 @@
         <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I69">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J69">
-        <v>7014</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B70">
         <v>2000</v>
@@ -2979,30 +2979,30 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>0.2</v>
       </c>
       <c r="I70">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="J70">
-        <v>3016</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B71">
         <v>2000</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3011,50 +3011,50 @@
         <v>0.7</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G71">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I71">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="J71">
-        <v>6438</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>2000</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G72">
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="J72">
-        <v>5477</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B73">
         <v>2000</v>
@@ -3063,22 +3063,22 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>0.4</v>
       </c>
       <c r="I73">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J73">
-        <v>5617</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
         <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3098,50 +3098,50 @@
         <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J74">
-        <v>7115</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B75">
         <v>2000</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I75">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J75">
-        <v>2999</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B76">
         <v>2000</v>
@@ -3153,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G76">
         <v>0.2</v>
       </c>
       <c r="I76">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J76">
-        <v>2963</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3176,54 +3176,54 @@
         <v>2000</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>0.4</v>
       </c>
       <c r="I77">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J77">
-        <v>5598</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>2000</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G78">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I78">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J78">
-        <v>5431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3237,91 +3237,91 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <v>0.7</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G79">
         <v>0.2</v>
       </c>
       <c r="I79">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="J79">
-        <v>3192</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B80">
         <v>2000</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G80">
         <v>0.4</v>
       </c>
       <c r="I80">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="J80">
-        <v>3013</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B81">
         <v>2000</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="J81">
-        <v>5846</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B82">
         <v>2000</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3333,42 +3333,42 @@
         <v>9</v>
       </c>
       <c r="G82">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I82">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J82">
-        <v>2618</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B83">
         <v>2000</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G83">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I83">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J83">
-        <v>2694</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3379,54 +3379,54 @@
         <v>2000</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="E84">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J84">
-        <v>6296</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>2000</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <v>0.8</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G85">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I85">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J85">
-        <v>2788</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3437,10 +3437,10 @@
         <v>2000</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>0.8</v>
@@ -3452,39 +3452,39 @@
         <v>0.4</v>
       </c>
       <c r="I86">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J86">
-        <v>6434</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>2000</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G87">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I87">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J87">
-        <v>8104</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>2000</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -3504,45 +3504,45 @@
         <v>0.8</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G88">
         <v>0.4</v>
       </c>
       <c r="I88">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J88">
-        <v>3175</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B89">
         <v>2000</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G89">
         <v>0.4</v>
       </c>
       <c r="I89">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J89">
-        <v>3091</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3553,25 +3553,25 @@
         <v>2000</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
       <c r="E90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I90">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J90">
-        <v>2881</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3582,25 +3582,25 @@
         <v>2000</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G91">
         <v>0.4</v>
       </c>
       <c r="I91">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J91">
-        <v>2771</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3611,25 +3611,25 @@
         <v>2000</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G92">
         <v>0.4</v>
       </c>
       <c r="I92">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J92">
-        <v>2823</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3640,141 +3640,141 @@
         <v>2000</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E93">
         <v>0.7</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G93">
         <v>0.4</v>
       </c>
       <c r="I93">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J93">
-        <v>2766</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B94">
         <v>2000</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E94">
         <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G94">
         <v>0.4</v>
       </c>
       <c r="I94">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="J94">
-        <v>2829</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B95">
         <v>2000</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E95">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G95">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I95">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="J95">
-        <v>2565</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B96">
         <v>2000</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G96">
         <v>0.4</v>
       </c>
       <c r="I96">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="J96">
-        <v>2938</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>2000</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E97">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
       </c>
       <c r="G97">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I97">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="J97">
-        <v>2640</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3785,25 +3785,25 @@
         <v>2000</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E98">
         <v>0.7</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G98">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I98">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="J98">
-        <v>6217</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3814,54 +3814,54 @@
         <v>2000</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E99">
         <v>0.8</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G99">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I99">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="J99">
-        <v>2669</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>2000</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G100">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I100">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="J100">
-        <v>4939</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3872,7 +3872,7 @@
         <v>2000</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3881,45 +3881,45 @@
         <v>0.7</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G101">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I101">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J101">
-        <v>6592</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>2000</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="E102">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G102">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I102">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J102">
-        <v>6286</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,100 +3930,100 @@
         <v>2000</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G103">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="J103">
-        <v>2815</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>2000</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E104">
         <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G104">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I104">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="J104">
-        <v>5386</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B105">
         <v>2000</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="E105">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G105">
         <v>0.2</v>
       </c>
       <c r="I105">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="J105">
-        <v>5127</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>2000</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -4032,68 +4032,68 @@
         <v>0.4</v>
       </c>
       <c r="I106">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="J106">
-        <v>6450</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>2000</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G107">
         <v>0.2</v>
       </c>
       <c r="I107">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="J107">
-        <v>5588</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>2000</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G108">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I108">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="J108">
-        <v>5106</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4104,42 +4104,42 @@
         <v>2000</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
       <c r="E109">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G109">
         <v>0.2</v>
       </c>
       <c r="I109">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="J109">
-        <v>6171</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B110">
         <v>2000</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -4148,39 +4148,39 @@
         <v>0.4</v>
       </c>
       <c r="I110">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="J110">
-        <v>3270</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>2000</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G111">
         <v>0.4</v>
       </c>
       <c r="I111">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="J111">
-        <v>7197</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4191,25 +4191,25 @@
         <v>2000</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G112">
         <v>0.2</v>
       </c>
       <c r="I112">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="J112">
-        <v>2709</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4220,25 +4220,25 @@
         <v>2000</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G113">
         <v>0.2</v>
       </c>
       <c r="I113">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="J113">
-        <v>5142</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4249,54 +4249,54 @@
         <v>2000</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G114">
         <v>0.2</v>
       </c>
       <c r="I114">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="J114">
-        <v>8341</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B115">
         <v>2000</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E115">
         <v>0.8</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G115">
         <v>0.2</v>
       </c>
       <c r="I115">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="J115">
-        <v>2677</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4310,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>0.8</v>
@@ -4319,27 +4319,27 @@
         <v>9</v>
       </c>
       <c r="G116">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I116">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="J116">
-        <v>3168</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>2000</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>0.8</v>
@@ -4351,10 +4351,10 @@
         <v>0.4</v>
       </c>
       <c r="I117">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="J117">
-        <v>4986</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
         <v>2000</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -4374,27 +4374,27 @@
         <v>0.7</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G118">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I118">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="J118">
-        <v>2697</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>2000</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -4406,24 +4406,24 @@
         <v>9</v>
       </c>
       <c r="G119">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I119">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="J119">
-        <v>5833</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B120">
         <v>2000</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -4432,16 +4432,16 @@
         <v>0.7</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I120">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="J120">
-        <v>5874</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4452,83 +4452,83 @@
         <v>2000</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G121">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I121">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="J121">
-        <v>6325</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B122">
         <v>2000</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E122">
         <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G122">
         <v>0.2</v>
       </c>
       <c r="I122">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="J122">
-        <v>8559</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B123">
         <v>2000</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G123">
         <v>0.2</v>
       </c>
       <c r="I123">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="J123">
-        <v>2535</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4539,59 +4539,59 @@
         <v>2000</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
       </c>
       <c r="G124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I124">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="J124">
-        <v>2863</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>2000</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E125">
         <v>0.8</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G125">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I125">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="J125">
-        <v>5765</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B126">
         <v>2000</v>
@@ -4600,33 +4600,33 @@
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>0.7</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G126">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I126">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="J126">
-        <v>3143</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B127">
         <v>2000</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -4635,16 +4635,16 @@
         <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G127">
         <v>0.2</v>
       </c>
       <c r="I127">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="J127">
-        <v>2764</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4655,83 +4655,83 @@
         <v>2000</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E128">
         <v>0.7</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G128">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I128">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="J128">
-        <v>6104</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>2000</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G129">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I129">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="J129">
-        <v>5065</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B130">
         <v>2000</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E130">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G130">
         <v>0.2</v>
       </c>
       <c r="I130">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="J130">
-        <v>2718</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4742,7 +4742,7 @@
         <v>2000</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -4751,16 +4751,16 @@
         <v>0.7</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G131">
         <v>0.2</v>
       </c>
       <c r="I131">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="J131">
-        <v>2631</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4771,54 +4771,54 @@
         <v>2000</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0.8</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I132">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="J132">
-        <v>5137</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B133">
         <v>2000</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E133">
         <v>0.7</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G133">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I133">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="J133">
-        <v>5288</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4829,141 +4829,141 @@
         <v>2000</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E134">
         <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G134">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I134">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="J134">
-        <v>2647</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B135">
         <v>2000</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G135">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I135">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="J135">
-        <v>2826</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B136">
         <v>2000</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F136" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G136">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I136">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="J136">
-        <v>2711</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B137">
         <v>2000</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G137">
         <v>0.2</v>
       </c>
       <c r="I137">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="J137">
-        <v>2656</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B138">
         <v>2000</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G138">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I138">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="J138">
-        <v>5250</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,83 +4974,83 @@
         <v>2000</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>0.7</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G139">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I139">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="J139">
-        <v>6393</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B140">
         <v>2000</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140">
         <v>0.8</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G140">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I140">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="J140">
-        <v>5475</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>2000</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141">
         <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G141">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I141">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="J141">
-        <v>2739</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5061,54 +5061,54 @@
         <v>2000</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G142">
         <v>0.4</v>
       </c>
       <c r="I142">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="J142">
-        <v>5936</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B143">
         <v>2000</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E143">
         <v>0.8</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G143">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I143">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="J143">
-        <v>5297</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5119,68 +5119,68 @@
         <v>2000</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144">
         <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G144">
         <v>0.4</v>
       </c>
       <c r="I144">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="J144">
-        <v>2521</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B145">
         <v>2000</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145">
         <v>0.8</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G145">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I145">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="J145">
-        <v>2689</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B146">
         <v>2000</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>0.7</v>
@@ -5192,39 +5192,39 @@
         <v>0.2</v>
       </c>
       <c r="I146">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="J146">
-        <v>2779</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B147">
         <v>2000</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E147">
         <v>0.8</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G147">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I147">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="J147">
-        <v>5645</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5235,7 +5235,7 @@
         <v>2000</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
@@ -5244,16 +5244,16 @@
         <v>0.7</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G148">
         <v>0.2</v>
       </c>
       <c r="I148">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="J148">
-        <v>6023</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5264,54 +5264,54 @@
         <v>2000</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E149">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G149">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I149">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="J149">
-        <v>3289</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B150">
         <v>2000</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>0.7</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G150">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I150">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="J150">
-        <v>2682</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5322,54 +5322,54 @@
         <v>2000</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G151">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I151">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="J151">
-        <v>2905</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B152">
         <v>2000</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G152">
         <v>0.2</v>
       </c>
       <c r="I152">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="J152">
-        <v>6646</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,25 +5380,25 @@
         <v>2000</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E153">
         <v>0.7</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G153">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I153">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="J153">
-        <v>2790</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5409,42 +5409,42 @@
         <v>2000</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E154">
         <v>0.7</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G154">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I154">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="J154">
-        <v>2711</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B155">
         <v>2000</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F155" t="s">
         <v>9</v>
@@ -5453,10 +5453,10 @@
         <v>0.4</v>
       </c>
       <c r="I155">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="J155">
-        <v>2562</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5467,42 +5467,42 @@
         <v>2000</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E156">
         <v>0.8</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G156">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I156">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="J156">
-        <v>3231</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B157">
         <v>2000</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -5511,68 +5511,68 @@
         <v>0.2</v>
       </c>
       <c r="I157">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="J157">
-        <v>5016</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B158">
         <v>2000</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G158">
         <v>0.2</v>
       </c>
       <c r="I158">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="J158">
-        <v>5186</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B159">
         <v>2000</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E159">
         <v>0.7</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G159">
         <v>0.4</v>
       </c>
       <c r="I159">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="J159">
-        <v>2813</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5583,25 +5583,25 @@
         <v>2000</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E160">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G160">
         <v>0.2</v>
       </c>
       <c r="I160">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J160">
-        <v>5998</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5612,83 +5612,83 @@
         <v>2000</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G161">
         <v>0.2</v>
       </c>
       <c r="I161">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J161">
-        <v>4996</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B162">
         <v>2000</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E162">
         <v>0.8</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I162">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="J162">
-        <v>2715</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B163">
         <v>2000</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G163">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I163">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="J163">
-        <v>5188</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5699,25 +5699,25 @@
         <v>2000</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E164">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G164">
         <v>0.2</v>
       </c>
       <c r="I164">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="J164">
-        <v>2798</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5728,54 +5728,54 @@
         <v>2000</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G165">
         <v>0.2</v>
       </c>
       <c r="I165">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="J165">
-        <v>2845</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B166">
         <v>2000</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G166">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I166">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="J166">
-        <v>5325</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5786,54 +5786,54 @@
         <v>2000</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G167">
         <v>0.2</v>
       </c>
       <c r="I167">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="J167">
-        <v>2935</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B168">
         <v>2000</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G168">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I168">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="J168">
-        <v>2909</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5844,25 +5844,25 @@
         <v>2000</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E169">
         <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G169">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I169">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="J169">
-        <v>5029</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5873,83 +5873,83 @@
         <v>2000</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E170">
         <v>0.7</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G170">
         <v>0.2</v>
       </c>
       <c r="I170">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J170">
-        <v>5090</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B171">
         <v>2000</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E171">
         <v>0.7</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G171">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I171">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="J171">
-        <v>2638</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B172">
         <v>2000</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G172">
         <v>0.2</v>
       </c>
       <c r="I172">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="J172">
-        <v>2731</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5960,25 +5960,25 @@
         <v>2000</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E173">
         <v>0.8</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G173">
         <v>0.2</v>
       </c>
       <c r="I173">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="J173">
-        <v>2690</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5989,25 +5989,25 @@
         <v>2000</v>
       </c>
       <c r="C174" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G174">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I174">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="J174">
-        <v>2582</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6018,25 +6018,25 @@
         <v>2000</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E175">
         <v>0.7</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G175">
         <v>0.2</v>
       </c>
       <c r="I175">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="J175">
-        <v>2611</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6047,54 +6047,54 @@
         <v>2000</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E176">
         <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G176">
         <v>0.2</v>
       </c>
       <c r="I176">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="J176">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B177">
         <v>2000</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G177">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I177">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="J177">
-        <v>5677</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6105,112 +6105,112 @@
         <v>2000</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E178">
         <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G178">
         <v>0.4</v>
       </c>
       <c r="I178">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="J178">
-        <v>2847</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B179">
         <v>2000</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F179" t="s">
         <v>9</v>
       </c>
       <c r="G179">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I179">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="J179">
-        <v>5781</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B180">
         <v>2000</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E180">
         <v>0.8</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G180">
         <v>0.4</v>
       </c>
       <c r="I180">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="J180">
-        <v>3158</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B181">
         <v>2000</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E181">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G181">
         <v>0.4</v>
       </c>
       <c r="I181">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="J181">
-        <v>5662</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6221,25 +6221,25 @@
         <v>2000</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E182">
         <v>0.7</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G182">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I182">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="J182">
-        <v>3272</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6250,42 +6250,42 @@
         <v>2000</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E183">
         <v>0.8</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G183">
         <v>0.4</v>
       </c>
       <c r="I183">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J183">
-        <v>2763</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B184">
         <v>2000</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F184" t="s">
         <v>9</v>
@@ -6294,10 +6294,10 @@
         <v>0.2</v>
       </c>
       <c r="I184">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="J184">
-        <v>3084</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6311,51 +6311,51 @@
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="J185">
-        <v>3116</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B186">
         <v>2000</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E186">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G186">
         <v>0.4</v>
       </c>
       <c r="I186">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="J186">
-        <v>5717</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6369,22 +6369,22 @@
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
       </c>
       <c r="G187">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I187">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="J187">
-        <v>5544</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6398,22 +6398,22 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E188">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G188">
         <v>0.4</v>
       </c>
       <c r="I188">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="J188">
-        <v>3061</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6427,27 +6427,27 @@
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I189">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="J189">
-        <v>5694</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B190">
         <v>2000</v>
@@ -6456,27 +6456,27 @@
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F190" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G190">
         <v>0.4</v>
       </c>
       <c r="I190">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="J190">
-        <v>2800</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>2000</v>
@@ -6485,7 +6485,7 @@
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E191">
         <v>0.7</v>
@@ -6494,18 +6494,18 @@
         <v>9</v>
       </c>
       <c r="G191">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I191">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="J191">
-        <v>5534</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B192">
         <v>2000</v>
@@ -6514,22 +6514,22 @@
         <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G192">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I192">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="J192">
-        <v>3068</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6543,22 +6543,22 @@
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E193">
         <v>0.7</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G193">
         <v>0.2</v>
       </c>
       <c r="I193">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="J193">
-        <v>5636</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6572,22 +6572,22 @@
         <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
         <v>9</v>
       </c>
       <c r="G194">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I194">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="J194">
-        <v>5595</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6601,27 +6601,27 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G195">
         <v>0.2</v>
       </c>
       <c r="I195">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J195">
-        <v>3078</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B196">
         <v>2000</v>
@@ -6630,27 +6630,27 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G196">
         <v>0.4</v>
       </c>
       <c r="I196">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="J196">
-        <v>5796</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B197">
         <v>2000</v>
@@ -6662,19 +6662,19 @@
         <v>13</v>
       </c>
       <c r="E197">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G197">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I197">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J197">
-        <v>5570</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6688,51 +6688,51 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E198">
         <v>0.7</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G198">
         <v>0.4</v>
       </c>
       <c r="I198">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J198">
-        <v>5689</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B199">
         <v>2000</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G199">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I199">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J199">
-        <v>5510</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6746,27 +6746,27 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E200">
         <v>0.7</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G200">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I200">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J200">
-        <v>3059</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>2000</v>
@@ -6775,7 +6775,7 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E201">
         <v>0.8</v>
@@ -6787,10 +6787,10 @@
         <v>0.4</v>
       </c>
       <c r="I201">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J201">
-        <v>3143</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6804,22 +6804,22 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I202">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J202">
-        <v>2904</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6833,27 +6833,27 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G203">
         <v>0.2</v>
       </c>
       <c r="I203">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J203">
-        <v>5886</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B204">
         <v>2000</v>
@@ -6862,22 +6862,22 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G204">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I204">
         <v>514</v>
       </c>
       <c r="J204">
-        <v>6962</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6891,22 +6891,22 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E205">
         <v>0.8</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G205">
         <v>0.4</v>
       </c>
       <c r="I205">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J205">
-        <v>3354</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6920,27 +6920,27 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G206">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I206">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J206">
-        <v>5952</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B207">
         <v>2000</v>
@@ -6949,22 +6949,22 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E207">
         <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G207">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I207">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J207">
-        <v>5916</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6978,22 +6978,22 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208">
         <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G208">
         <v>0.4</v>
       </c>
       <c r="I208">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J208">
-        <v>5637</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7007,27 +7007,27 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E209">
         <v>0.8</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G209">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I209">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J209">
-        <v>6722</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B210">
         <v>2000</v>
@@ -7036,22 +7036,22 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E210">
         <v>0.8</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G210">
         <v>0.4</v>
       </c>
       <c r="I210">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J210">
-        <v>3150</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7065,22 +7065,22 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F211" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J211">
-        <v>3062</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7097,24 +7097,24 @@
         <v>13</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G212">
         <v>0.2</v>
       </c>
       <c r="I212">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J212">
-        <v>3169</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B213">
         <v>2000</v>
@@ -7123,51 +7123,51 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E213">
         <v>0.7</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G213">
         <v>0.2</v>
       </c>
       <c r="I213">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J213">
-        <v>2829</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B214">
         <v>2000</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E214">
         <v>0.8</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G214">
         <v>0.4</v>
       </c>
       <c r="I214">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J214">
-        <v>2804</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7181,7 +7181,7 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215">
         <v>0.8</v>
@@ -7207,16 +7207,16 @@
         <v>2000</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E216">
         <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G216">
         <v>0.4</v>
@@ -7225,27 +7225,27 @@
         <v>518</v>
       </c>
       <c r="J216">
-        <v>6737</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B217">
         <v>2000</v>
       </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G217">
         <v>0.4</v>
@@ -7254,12 +7254,12 @@
         <v>518</v>
       </c>
       <c r="J217">
-        <v>5605</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B218">
         <v>2000</v>
@@ -7271,19 +7271,19 @@
         <v>13</v>
       </c>
       <c r="E218">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G218">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I218">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J218">
-        <v>3139</v>
+        <v>6737</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7297,27 +7297,27 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E219">
         <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G219">
         <v>0.4</v>
       </c>
       <c r="I219">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J219">
-        <v>3187</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B220">
         <v>2000</v>
@@ -7329,19 +7329,19 @@
         <v>13</v>
       </c>
       <c r="E220">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G220">
         <v>0.2</v>
       </c>
       <c r="I220">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J220">
-        <v>5661</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7355,22 +7355,22 @@
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E221">
         <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G221">
         <v>0.2</v>
       </c>
       <c r="I221">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J221">
-        <v>5636</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7381,7 +7381,7 @@
         <v>2000</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
@@ -7390,16 +7390,16 @@
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G222">
         <v>0.4</v>
       </c>
       <c r="I222">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J222">
-        <v>5651</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7413,13 +7413,13 @@
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E223">
         <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G223">
         <v>0.2</v>
@@ -7428,12 +7428,12 @@
         <v>520</v>
       </c>
       <c r="J223">
-        <v>5809</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B224">
         <v>2000</v>
@@ -7442,22 +7442,22 @@
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G224">
         <v>0.4</v>
       </c>
       <c r="I224">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J224">
-        <v>3127</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7477,16 +7477,16 @@
         <v>0.8</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G225">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I225">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J225">
-        <v>3183</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7500,22 +7500,22 @@
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E226">
         <v>0.7</v>
       </c>
       <c r="F226" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J226">
-        <v>5555</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G227">
         <v>0.4</v>
@@ -7544,12 +7544,12 @@
         <v>522</v>
       </c>
       <c r="J227">
-        <v>5710</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B228">
         <v>2000</v>
@@ -7558,13 +7558,13 @@
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G228">
         <v>0.4</v>
@@ -7573,12 +7573,12 @@
         <v>522</v>
       </c>
       <c r="J228">
-        <v>6740</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B229">
         <v>2000</v>
@@ -7587,27 +7587,27 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G229">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I229">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J229">
-        <v>3227</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B230">
         <v>2000</v>
@@ -7622,16 +7622,16 @@
         <v>0.7</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G230">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I230">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J230">
-        <v>3197</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7645,22 +7645,22 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G231">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I231">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J231">
-        <v>5256</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7674,13 +7674,13 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F232" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G232">
         <v>0.2</v>
@@ -7689,12 +7689,12 @@
         <v>524</v>
       </c>
       <c r="J232">
-        <v>6842</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B233">
         <v>2000</v>
@@ -7703,42 +7703,42 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E233">
         <v>0.8</v>
       </c>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G233">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I233">
         <v>524</v>
       </c>
       <c r="J233">
-        <v>6557</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B234">
         <v>2000</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G234">
         <v>0.4</v>
@@ -7747,7 +7747,7 @@
         <v>524</v>
       </c>
       <c r="J234">
-        <v>5594</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7761,27 +7761,27 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E235">
         <v>0.7</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G235">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I235">
         <v>526</v>
       </c>
       <c r="J235">
-        <v>3273</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B236">
         <v>2000</v>
@@ -7790,13 +7790,13 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E236">
         <v>0.7</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G236">
         <v>0.2</v>
@@ -7805,12 +7805,12 @@
         <v>526</v>
       </c>
       <c r="J236">
-        <v>3007</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B237">
         <v>2000</v>
@@ -7819,22 +7819,22 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E237">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G237">
         <v>0.2</v>
       </c>
       <c r="I237">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J237">
-        <v>5164</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7863,7 +7863,7 @@
         <v>528</v>
       </c>
       <c r="J238">
-        <v>3015</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7877,27 +7877,27 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E239">
         <v>0.8</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G239">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I239">
         <v>528</v>
       </c>
       <c r="J239">
-        <v>3155</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B240">
         <v>2000</v>
@@ -7906,13 +7906,13 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E240">
         <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G240">
         <v>0.4</v>
@@ -7921,12 +7921,12 @@
         <v>528</v>
       </c>
       <c r="J240">
-        <v>2894</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B241">
         <v>2000</v>
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F241" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G241">
         <v>0.2</v>
@@ -7950,12 +7950,12 @@
         <v>528</v>
       </c>
       <c r="J241">
-        <v>2765</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B242">
         <v>2000</v>
@@ -7964,27 +7964,27 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E242">
         <v>0.8</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G242">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I242">
         <v>528</v>
       </c>
       <c r="J242">
-        <v>2831</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B243">
         <v>2000</v>
@@ -7999,16 +7999,16 @@
         <v>0.8</v>
       </c>
       <c r="F243" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G243">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I243">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J243">
-        <v>3065</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8022,22 +8022,22 @@
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I244">
         <v>530</v>
       </c>
       <c r="J244">
-        <v>3056</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8051,13 +8051,13 @@
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E245">
         <v>0.7</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G245">
         <v>0.2</v>
@@ -8066,12 +8066,12 @@
         <v>530</v>
       </c>
       <c r="J245">
-        <v>2852</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B246">
         <v>2000</v>
@@ -8080,13 +8080,13 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G246">
         <v>0.4</v>
@@ -8095,12 +8095,12 @@
         <v>530</v>
       </c>
       <c r="J246">
-        <v>5840</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B247">
         <v>2000</v>
@@ -8109,13 +8109,13 @@
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E247">
         <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G247">
         <v>0.4</v>
@@ -8124,12 +8124,12 @@
         <v>530</v>
       </c>
       <c r="J247">
-        <v>7135</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B248">
         <v>2000</v>
@@ -8138,22 +8138,22 @@
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G248">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I248">
         <v>532</v>
       </c>
       <c r="J248">
-        <v>2833</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8167,13 +8167,13 @@
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E249">
         <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G249">
         <v>0.2</v>
@@ -8182,7 +8182,7 @@
         <v>532</v>
       </c>
       <c r="J249">
-        <v>2855</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -8196,22 +8196,22 @@
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G250">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I250">
         <v>532</v>
       </c>
       <c r="J250">
-        <v>2892</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8225,13 +8225,13 @@
         <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E251">
         <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G251">
         <v>0.4</v>
@@ -8240,7 +8240,7 @@
         <v>532</v>
       </c>
       <c r="J251">
-        <v>5442</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8254,7 +8254,7 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E252">
         <v>0.7</v>
@@ -8283,7 +8283,7 @@
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E253">
         <v>0.7</v>
@@ -8312,7 +8312,7 @@
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E254">
         <v>0.7</v>
@@ -8341,22 +8341,22 @@
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E255">
         <v>0.8</v>
       </c>
       <c r="F255" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G255">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I255">
         <v>536</v>
       </c>
       <c r="J255">
-        <v>6816</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8370,7 +8370,7 @@
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E256">
         <v>0.8</v>
@@ -8399,7 +8399,7 @@
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E257">
         <v>0.8</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B258">
         <v>2000</v>
@@ -8428,22 +8428,22 @@
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E258">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F258" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G258">
         <v>0.4</v>
       </c>
       <c r="I258">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="J258">
-        <v>5978</v>
+        <v>2491</v>
       </c>
     </row>
   </sheetData>
